--- a/Zones/IconPlatNano_KB_1.0/Mapping.xlsx
+++ b/Zones/IconPlatNano_KB_1.0/Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/568db26a05cb3412/Documents/git/ReaperCSINano/Zones/IconPlatNano_KB_1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{2C3CFBA9-8DED-4A44-A1DE-1044D74B9366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E12806F-4DEE-4AE9-A651-B1784464E11D}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{2C3CFBA9-8DED-4A44-A1DE-1044D74B9366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D05808A0-8BF2-42DB-8A05-3A2FBDDA1EF1}"/>
   <bookViews>
-    <workbookView xWindow="13965" yWindow="1455" windowWidth="19710" windowHeight="14145" xr2:uid="{D7A7375A-96C4-43BD-907F-7B9A83A15B3C}"/>
+    <workbookView xWindow="1860" yWindow="2205" windowWidth="19710" windowHeight="14145" xr2:uid="{D7A7375A-96C4-43BD-907F-7B9A83A15B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="85">
   <si>
     <t>Rotary</t>
   </si>
@@ -210,15 +210,6 @@
     <t>I/O</t>
   </si>
   <si>
-    <t>Env 4 touched</t>
-  </si>
-  <si>
-    <t>Open rend. Q</t>
-  </si>
-  <si>
-    <t>Render queued</t>
-  </si>
-  <si>
     <t>New track</t>
   </si>
   <si>
@@ -280,6 +271,24 @@
   </si>
   <si>
     <t>Dual.Pan Mode</t>
+  </si>
+  <si>
+    <t>Save+Incr.</t>
+  </si>
+  <si>
+    <t>Env&gt;lasttouch</t>
+  </si>
+  <si>
+    <t>Curve Bender</t>
+  </si>
+  <si>
+    <t>Germ Comp</t>
+  </si>
+  <si>
+    <t>Render all</t>
+  </si>
+  <si>
+    <t>Rend Queue</t>
   </si>
 </sst>
 </file>
@@ -838,7 +847,7 @@
   <dimension ref="A2:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -853,7 +862,7 @@
     <col min="8" max="8" width="9.140625" style="15"/>
     <col min="9" max="9" width="14.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="15"/>
-    <col min="11" max="11" width="13.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="15" customWidth="1"/>
     <col min="12" max="13" width="9.140625" style="15"/>
     <col min="14" max="14" width="11" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="15"/>
@@ -1170,7 +1179,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1361,13 +1370,13 @@
         <v>20</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J20" s="26" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="2"/>
@@ -1391,7 +1400,7 @@
         <v>6</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H21" s="26" t="s">
         <v>6</v>
@@ -1399,9 +1408,6 @@
       <c r="I21" s="4"/>
       <c r="J21" s="26" t="s">
         <v>6</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="26" t="s">
@@ -1434,7 +1440,9 @@
       <c r="J22" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="6"/>
+      <c r="K22" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="26" t="s">
         <v>6</v>
@@ -1461,14 +1469,16 @@
       <c r="M23" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="4"/>
+      <c r="N23" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="27" t="s">
@@ -1514,25 +1524,25 @@
         <v>20</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="J26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="2"/>
@@ -1550,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F27" s="26" t="s">
         <v>6</v>
@@ -1636,25 +1646,25 @@
         <v>20</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="J30" s="26" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="27" t="s">
@@ -1672,7 +1682,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F31" s="26" t="s">
         <v>6</v>
@@ -1702,25 +1712,25 @@
         <v>7</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="J32" s="27" t="s">
         <v>7</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="2"/>
@@ -1757,13 +1767,15 @@
       <c r="B34" s="6"/>
       <c r="C34" s="1"/>
       <c r="D34" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N34" s="4"/>
+      <c r="N34" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
@@ -1789,7 +1801,9 @@
       <c r="M35" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N35" s="4"/>
+      <c r="N35" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
@@ -1799,13 +1813,13 @@
         <v>20</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H36" s="26" t="s">
         <v>20</v>
@@ -1911,19 +1925,19 @@
         <v>20</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>20</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J40" s="26" t="s">
         <v>20</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="26" t="s">

--- a/Zones/IconPlatNano_KB_1.0/Mapping.xlsx
+++ b/Zones/IconPlatNano_KB_1.0/Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/568db26a05cb3412/Documents/git/ReaperCSINano/Zones/IconPlatNano_KB_1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{2C3CFBA9-8DED-4A44-A1DE-1044D74B9366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D05808A0-8BF2-42DB-8A05-3A2FBDDA1EF1}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{2C3CFBA9-8DED-4A44-A1DE-1044D74B9366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FB6B8FED-0697-4784-87D1-8ABBABCF1527}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2205" windowWidth="19710" windowHeight="14145" xr2:uid="{D7A7375A-96C4-43BD-907F-7B9A83A15B3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{D7A7375A-96C4-43BD-907F-7B9A83A15B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="88">
   <si>
     <t>Rotary</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>Rend Queue</t>
+  </si>
+  <si>
+    <t>FX Zone</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Lock Item</t>
   </si>
 </sst>
 </file>
@@ -847,7 +856,7 @@
   <dimension ref="A2:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -864,7 +873,7 @@
     <col min="10" max="10" width="9.140625" style="15"/>
     <col min="11" max="11" width="14.140625" style="15" customWidth="1"/>
     <col min="12" max="13" width="9.140625" style="15"/>
-    <col min="14" max="14" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="15" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
@@ -1405,7 +1414,9 @@
       <c r="H21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="J21" s="26" t="s">
         <v>6</v>
       </c>
@@ -1436,7 +1447,9 @@
       <c r="H22" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="J22" s="27" t="s">
         <v>7</v>
       </c>
@@ -1943,7 +1956,9 @@
       <c r="M40" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N40" s="4"/>
+      <c r="N40" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>

--- a/Zones/IconPlatNano_KB_1.0/Mapping.xlsx
+++ b/Zones/IconPlatNano_KB_1.0/Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/568db26a05cb3412/Documents/git/ReaperCSINano/Zones/IconPlatNano_KB_1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{2C3CFBA9-8DED-4A44-A1DE-1044D74B9366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FB6B8FED-0697-4784-87D1-8ABBABCF1527}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{2C3CFBA9-8DED-4A44-A1DE-1044D74B9366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FAAE7FF9-5FE4-4333-A13B-A48FC5957B87}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{D7A7375A-96C4-43BD-907F-7B9A83A15B3C}"/>
+    <workbookView xWindow="17805" yWindow="1455" windowWidth="19710" windowHeight="14145" xr2:uid="{D7A7375A-96C4-43BD-907F-7B9A83A15B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="90">
   <si>
     <t>Rotary</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>Lock Item</t>
+  </si>
+  <si>
+    <t>Shift+Alt</t>
+  </si>
+  <si>
+    <t>Zener</t>
   </si>
 </sst>
 </file>
@@ -856,7 +862,7 @@
   <dimension ref="A2:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1815,7 +1821,7 @@
         <v>7</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -1844,9 +1850,11 @@
       <c r="K36" s="4"/>
       <c r="L36" s="1"/>
       <c r="M36" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N36" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>

--- a/Zones/IconPlatNano_KB_1.0/Mapping.xlsx
+++ b/Zones/IconPlatNano_KB_1.0/Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/568db26a05cb3412/Documents/git/ReaperCSINano/Zones/IconPlatNano_KB_1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{2C3CFBA9-8DED-4A44-A1DE-1044D74B9366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FAAE7FF9-5FE4-4333-A13B-A48FC5957B87}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{2C3CFBA9-8DED-4A44-A1DE-1044D74B9366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2FF7E92A-B360-4445-A2E0-DE984E301258}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="1455" windowWidth="19710" windowHeight="14145" xr2:uid="{D7A7375A-96C4-43BD-907F-7B9A83A15B3C}"/>
+    <workbookView xWindow="16575" yWindow="1455" windowWidth="20940" windowHeight="14145" xr2:uid="{D7A7375A-96C4-43BD-907F-7B9A83A15B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="117">
   <si>
     <t>Rotary</t>
   </si>
@@ -207,9 +207,6 @@
     <t>BUTTON 8</t>
   </si>
   <si>
-    <t>I/O</t>
-  </si>
-  <si>
     <t>New track</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>MIDI EDITING</t>
   </si>
   <si>
-    <t>Dual.Pan Mode</t>
-  </si>
-  <si>
     <t>Save+Incr.</t>
   </si>
   <si>
@@ -291,12 +285,6 @@
     <t>Rend Queue</t>
   </si>
   <si>
-    <t>FX Zone</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
     <t>Lock Item</t>
   </si>
   <si>
@@ -304,6 +292,99 @@
   </si>
   <si>
     <t>Zener</t>
+  </si>
+  <si>
+    <t>Stereo Pan</t>
+  </si>
+  <si>
+    <t>Track I/O</t>
+  </si>
+  <si>
+    <t>Save&amp;Close</t>
+  </si>
+  <si>
+    <t>Freeze Track</t>
+  </si>
+  <si>
+    <t>Unfreeze Track</t>
+  </si>
+  <si>
+    <t>MUTE</t>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>PLAY</t>
+  </si>
+  <si>
+    <t>RECORD</t>
+  </si>
+  <si>
+    <t>LOOP</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Time Sel Right</t>
+  </si>
+  <si>
+    <t>Time sel left</t>
+  </si>
+  <si>
+    <t>Rewind</t>
+  </si>
+  <si>
+    <t>Fast forward</t>
+  </si>
+  <si>
+    <t>Rewind little</t>
+  </si>
+  <si>
+    <t>FF little</t>
+  </si>
+  <si>
+    <t>Mute</t>
+  </si>
+  <si>
+    <t>Track Solo</t>
+  </si>
+  <si>
+    <t>Solo Exclusive</t>
+  </si>
+  <si>
+    <t>Clear all solo</t>
+  </si>
+  <si>
+    <t>ARM track</t>
+  </si>
+  <si>
+    <t>Cycle mode</t>
+  </si>
+  <si>
+    <t>Play f. cursor</t>
+  </si>
+  <si>
+    <t>down octave</t>
+  </si>
+  <si>
+    <t>up octave</t>
+  </si>
+  <si>
+    <t>TRANSPORT PANEL</t>
   </si>
 </sst>
 </file>
@@ -362,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +477,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -542,6 +629,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,10 +948,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N48"/>
+  <dimension ref="A2:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -875,7 +964,7 @@
     <col min="6" max="6" width="9.140625" style="15"/>
     <col min="7" max="7" width="14" style="15" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="15"/>
-    <col min="9" max="9" width="14.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="15"/>
     <col min="11" max="11" width="14.140625" style="15" customWidth="1"/>
     <col min="12" max="13" width="9.140625" style="15"/>
@@ -1194,7 +1283,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1332,7 +1421,9 @@
       <c r="J18" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="27" t="s">
         <v>8</v>
@@ -1379,19 +1470,19 @@
         <v>20</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="H20" s="26" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J20" s="26" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="2"/>
@@ -1415,13 +1506,13 @@
         <v>6</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>85</v>
+      <c r="I21" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>6</v>
@@ -1453,14 +1544,14 @@
       <c r="H22" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>86</v>
+      <c r="I22" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="J22" s="27" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="26" t="s">
@@ -1489,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1497,7 +1588,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="27" t="s">
@@ -1543,25 +1634,25 @@
         <v>20</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="H26" s="26" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="2"/>
@@ -1579,7 +1670,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="26" t="s">
         <v>6</v>
@@ -1605,7 +1696,9 @@
       <c r="A28" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="27" t="s">
         <v>7</v>
@@ -1665,25 +1758,25 @@
         <v>20</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="J30" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="27" t="s">
@@ -1701,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="26" t="s">
         <v>6</v>
@@ -1731,25 +1824,25 @@
         <v>7</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="2"/>
@@ -1761,7 +1854,7 @@
       <c r="A33" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1783,17 +1876,19 @@
       <c r="A34" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="26" t="s">
         <v>6</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -1821,7 +1916,7 @@
         <v>7</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -1832,13 +1927,13 @@
         <v>20</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="H36" s="26" t="s">
         <v>20</v>
@@ -1850,10 +1945,10 @@
       <c r="K36" s="4"/>
       <c r="L36" s="1"/>
       <c r="M36" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -1946,26 +2041,26 @@
         <v>20</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>20</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J40" s="26" t="s">
         <v>20</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="26" t="s">
         <v>6</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2037,6 +2132,16 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D45" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
       <c r="M45" s="28" t="s">
         <v>20</v>
       </c>
@@ -2045,22 +2150,190 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D46" s="2"/>
+      <c r="E46" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="31"/>
+      <c r="G46" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="31"/>
+      <c r="I46" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" s="31"/>
+      <c r="K46" s="30" t="s">
+        <v>99</v>
+      </c>
       <c r="M46" s="28" t="s">
         <v>6</v>
       </c>
       <c r="N46" s="19"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D47" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="M47" s="28" t="s">
         <v>7</v>
       </c>
       <c r="N47" s="19"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D48" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="5"/>
       <c r="M48" s="29" t="s">
         <v>8</v>
       </c>
       <c r="N48" s="20"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D49" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D50" s="2"/>
+      <c r="E50" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="31"/>
+      <c r="G50" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" s="31"/>
+      <c r="I50" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="J50" s="31"/>
+      <c r="K50" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D52" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D53" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Zones/IconPlatNano_KB_1.0/Mapping.xlsx
+++ b/Zones/IconPlatNano_KB_1.0/Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/568db26a05cb3412/Documents/git/ReaperCSINano/Zones/IconPlatNano_KB_1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{2C3CFBA9-8DED-4A44-A1DE-1044D74B9366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2FF7E92A-B360-4445-A2E0-DE984E301258}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{2C3CFBA9-8DED-4A44-A1DE-1044D74B9366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8401D816-9CCA-4F6E-925F-52073B51F136}"/>
   <bookViews>
     <workbookView xWindow="16575" yWindow="1455" windowWidth="20940" windowHeight="14145" xr2:uid="{D7A7375A-96C4-43BD-907F-7B9A83A15B3C}"/>
   </bookViews>
@@ -2337,6 +2337,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="77" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>